--- a/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.53152811231457</v>
+        <v>-4.841487890029486</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.48550284353988</v>
+        <v>-4.526869437444151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.240454357372587</v>
+        <v>-5.959476059352744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1214814428343384</v>
+        <v>0.1241531953722687</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7925163256351364</v>
+        <v>-0.8074731915766348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.476323862781277</v>
+        <v>-0.4621543821355935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4909852512696665</v>
+        <v>-0.5217955072060743</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2352418671777986</v>
+        <v>-0.184564701021111</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.971278057615069</v>
+        <v>2.234770398149384</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.775217666430902</v>
+        <v>4.903050459324298</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.599149908520745</v>
+        <v>4.430612464616344</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.135003613947134</v>
+        <v>6.602839538325476</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.11104229121025</v>
+        <v>1.076618606810299</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.860590026309752</v>
+        <v>0.9086350504905275</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7670286776163355</v>
+        <v>0.7453264858157556</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10.39884696455993</v>
+        <v>9.292568490506856</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.2511510298401048</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.6680907435335975</v>
+        <v>-0.6680907435335969</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4360011936270702</v>
@@ -749,7 +749,7 @@
         <v>-0.03611997196926856</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1348400962997211</v>
+        <v>-0.1348400962997209</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5028260057238312</v>
+        <v>-0.785416951614488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.612506852821154</v>
+        <v>-4.778672825716219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.378447270844174</v>
+        <v>-3.661952651588687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.96893949585825</v>
+        <v>-3.929232981630244</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08303301357370482</v>
+        <v>-0.1356664564501173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5070580308587713</v>
+        <v>-0.5418841764693025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4022111034487486</v>
+        <v>-0.413316080557108</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5887118883447799</v>
+        <v>-0.5664831669739961</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.781103039194887</v>
+        <v>5.354558272781294</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.451849749464873</v>
+        <v>1.248273285526567</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.832963362502264</v>
+        <v>3.074020703105696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.395461784294215</v>
+        <v>2.360467106263324</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.320885682227282</v>
+        <v>1.303900089852104</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3031422304421319</v>
+        <v>0.2467836699779443</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5420125225053658</v>
+        <v>0.5715039459704472</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7454585855167974</v>
+        <v>0.8354736356063376</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.542066794903136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.09367709363262075</v>
+        <v>-0.09367709363261936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1009327602294464</v>
@@ -849,7 +849,7 @@
         <v>1.504482614057066</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.019299672764575</v>
+        <v>-0.01929967276457471</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.267127191941676</v>
+        <v>-4.893629229865398</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.212679997944638</v>
+        <v>-1.906211472470454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03426403491850965</v>
+        <v>-0.1457250439244279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.645847125377986</v>
+        <v>-3.603335848101145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.516117029705229</v>
+        <v>-0.5254246475445826</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.473208296802796</v>
+        <v>-0.4311682811788484</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1610993039814056</v>
+        <v>-0.2403735002121213</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5295186168519623</v>
+        <v>-0.5355796720770506</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.397358056433336</v>
+        <v>3.36503227557223</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.059591715820664</v>
+        <v>4.082637851652422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.162055102277952</v>
+        <v>5.082895771723313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.272155478543797</v>
+        <v>3.001897941288351</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.626751172900108</v>
+        <v>0.6194455292930435</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.797600774355689</v>
+        <v>1.851839500027785</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>7.235679208682945</v>
+        <v>6.997050112150131</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.219279332243371</v>
+        <v>1.007301625558282</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.615585628163152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1751213687305691</v>
+        <v>0.1751213687305688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.499444493539878</v>
@@ -949,7 +949,7 @@
         <v>-0.3286305238634115</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1734750421688761</v>
+        <v>0.1734750421688758</v>
       </c>
     </row>
     <row r="14">
@@ -960,29 +960,27 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.58351911243971</v>
+        <v>-1.431364696694368</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.580737990538364</v>
+        <v>-3.715078190056901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.660242841270121</v>
+        <v>-6.312071250208738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.121880386469523</v>
+        <v>-2.028897842079779</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4592976267519285</v>
+        <v>-0.4718008168577557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6197842135667394</v>
+        <v>-0.6408756194554119</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6552627495775037</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6312803311012305</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -992,25 +990,25 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.831485811342249</v>
+        <v>4.015528261366383</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.100400809627965</v>
+        <v>1.764500043333336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8002227846109294</v>
+        <v>0.9803841603498055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.675494782173448</v>
+        <v>1.60007041004447</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.189786898686725</v>
+        <v>3.130706758611458</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8514520521179568</v>
+        <v>0.7134623647962082</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1618457177543324</v>
+        <v>0.1939816150522859</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
     </row>
@@ -1060,25 +1058,25 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.925435133241187</v>
+        <v>-1.931387642308948</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.289357784447297</v>
+        <v>-1.740446101665066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.853043443245419</v>
+        <v>-2.665723426308316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1960076904718365</v>
+        <v>0.1918597461775086</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4619330191873053</v>
+        <v>-0.4572318148443818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4356243216545513</v>
+        <v>-0.3621458088897349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6276182256916315</v>
+        <v>-0.6464051324551844</v>
       </c>
       <c r="J17" s="6" t="inlineStr"/>
     </row>
@@ -1090,25 +1088,25 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.341223003055893</v>
+        <v>6.319196596778358</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.337401332566232</v>
+        <v>6.139394178258089</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.704379971614101</v>
+        <v>3.683128485818408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.819149762044866</v>
+        <v>1.772420450324746</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.55228554602997</v>
+        <v>4.123445690318455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.981397890046749</v>
+        <v>2.732276983315816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.695129330790793</v>
+        <v>2.907097556387764</v>
       </c>
       <c r="J18" s="6" t="inlineStr"/>
     </row>
@@ -1133,7 +1131,7 @@
         <v>-0.4686779193492364</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.6961151371452028</v>
+        <v>-0.6961151371452025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8641143318755893</v>
@@ -1156,26 +1154,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.075754624584706</v>
+        <v>-1.290948882680287</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.6819866787575026</v>
+        <v>-0.4054939483140569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.231501963442775</v>
+        <v>-2.220430140445987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.676326332928017</v>
+        <v>-3.888040541379487</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5603426751205258</v>
+        <v>-0.6619512798790155</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3959843991427747</v>
+        <v>-0.2913719162089253</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.7090525766665904</v>
+        <v>-0.706936504821237</v>
       </c>
     </row>
     <row r="21">
@@ -1186,26 +1184,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.979637604772569</v>
+        <v>4.506528503224468</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.99637707214782</v>
+        <v>4.685812884711146</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9198179985475232</v>
+        <v>0.89478199052622</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.053908312281529</v>
+        <v>2.032738002130118</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.467262952877956</v>
+        <v>6.430932495392528</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.07473260473629</v>
+        <v>5.810266146623675</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.331097122285648</v>
+        <v>1.274798428889606</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1227,7 @@
         <v>0.6980037882731327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8418301314460953</v>
+        <v>0.8418301314460946</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6673604913711899</v>
@@ -1241,7 +1239,7 @@
         <v>0.2230353147350383</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2025055112932068</v>
+        <v>0.2025055112932066</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1250,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4969973279265485</v>
+        <v>0.3840054822451605</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.922140477074603</v>
+        <v>1.840575815067274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.51177080076354</v>
+        <v>-1.316152815829084</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.19072226614619</v>
+        <v>-1.418785421739575</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05136141774856331</v>
+        <v>0.04799110454391693</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3247823312731466</v>
+        <v>0.2820338432491777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3878436260300794</v>
+        <v>-0.3312793391905133</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2273400893606046</v>
+        <v>-0.2791692219212963</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1282,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.326599597314218</v>
+        <v>6.401760789940687</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.492102416940918</v>
+        <v>7.422959530293952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.738846557923707</v>
+        <v>2.741973482957753</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.065383606873611</v>
+        <v>3.103546965747273</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.627125815884596</v>
+        <v>1.694529466503665</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.262507813270201</v>
+        <v>2.04377953440084</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.287102320080149</v>
+        <v>1.290870866285986</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.093429513142681</v>
+        <v>0.9682832802875553</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1327,7 @@
         <v>1.155269183776265</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9083971954176225</v>
+        <v>0.9083971954176229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.06319547690563983</v>
@@ -1341,7 +1339,7 @@
         <v>0.4137732275859841</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.8933442856458974</v>
+        <v>0.8933442856458977</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1350,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.878400880128303</v>
+        <v>-2.81401346238351</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1057260503410594</v>
+        <v>-0.1665348022133518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.7038327732928196</v>
+        <v>-0.6294719335888458</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.377752757069195</v>
+        <v>-0.3720141927156244</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4058113237462558</v>
+        <v>-0.400530841549593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.000341171874763297</v>
+        <v>-0.05508718652154995</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2433471352617717</v>
+        <v>-0.198285555794854</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3144833544658404</v>
+        <v>-0.3457373307077268</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1382,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.910987478683785</v>
+        <v>2.065492069033856</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.770069144505039</v>
+        <v>4.290562864093469</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.068509488852806</v>
+        <v>2.972847186041748</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.989908686830992</v>
+        <v>2.059600741831953</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4098750223088388</v>
+        <v>0.4544030780153545</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.372592996857058</v>
+        <v>1.260654640250922</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.570556584954689</v>
+        <v>1.492275635133606</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.190515860718247</v>
+        <v>3.797755989623276</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1427,7 @@
         <v>0.2464205157991034</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.5095059800383033</v>
+        <v>0.5095059800383037</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2386359072924679</v>
@@ -1441,7 +1439,7 @@
         <v>0.05730776726274332</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1852433096295868</v>
+        <v>0.185243309629587</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1450,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.621320204445923e-05</v>
+        <v>-0.02623053031808758</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2705074617094217</v>
+        <v>0.3640082156425102</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.746094253283074</v>
+        <v>-0.8130103926290733</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4063776667792524</v>
+        <v>-0.3673548357545247</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.008340845379911532</v>
+        <v>-0.005378095532949306</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05111397385500767</v>
+        <v>0.06668501467450448</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.1503302599650259</v>
+        <v>-0.1690488248569339</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1194876908361326</v>
+        <v>-0.1232091641916623</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1482,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.311887060960673</v>
+        <v>2.328904737691338</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.617795539777996</v>
+        <v>2.555223213884602</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.307767446076197</v>
+        <v>1.291291874559352</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.327541736932854</v>
+        <v>1.431299234767051</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5385479988127034</v>
+        <v>0.5656005629362771</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6255019100539317</v>
+        <v>0.5913425364979893</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3436912684266902</v>
+        <v>0.3399508915662005</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5948215373110245</v>
+        <v>0.6297933865722084</v>
       </c>
     </row>
     <row r="31">
